--- a/biology/Botanique/Commission_de_la_protection_des_plantes_dans_les_Caraïbes/Commission_de_la_protection_des_plantes_dans_les_Caraïbes.xlsx
+++ b/biology/Botanique/Commission_de_la_protection_des_plantes_dans_les_Caraïbes/Commission_de_la_protection_des_plantes_dans_les_Caraïbes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Commission_de_la_protection_des_plantes_dans_les_Cara%C3%AFbes</t>
+          <t>Commission_de_la_protection_des_plantes_dans_les_Caraïbes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Commission de la protection des plantes dans les Caraïbes (CPPC), en anglais Caribbean Plant Protection Commission, en espagnol Comisión de Protección Fitosanitaria para el Caribe, est une organisation intergouvernementale responsable de la coopération sur la santé des plantes pour la région des Caraïbes. 
 Fondée en 1967, la CPPC regroupe vingt-deux pays : Barbade, Colombie, Costa Rica, Cuba, Dominique, République dominicaine, États-Unis (pour les États-Unis, les îles Vierges américaines et Porto Rico), France (pour la Guadeloupe, la Guyane française et la Martinique), Grenade, Guyana, Haïti, Jamaïque, Mexique, Nicaragua, Panama, Pays-Bas (pour Aruba et les Antilles néerlandaises), Saint-Christophe-et-Niévès, Sainte-Lucie, Surinam, Trinité-et-Tobago, Royaume-Uni (pour les îles Vierges britanniques), Venezuela.
